--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2272.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2272.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152634655472388</v>
+        <v>1.226335644721985</v>
       </c>
       <c r="B1">
-        <v>2.527436437581799</v>
+        <v>2.704195499420166</v>
       </c>
       <c r="C1">
-        <v>5.127082457989708</v>
+        <v>4.289385795593262</v>
       </c>
       <c r="D1">
-        <v>2.81267935149747</v>
+        <v>2.117380857467651</v>
       </c>
       <c r="E1">
-        <v>1.220099334185607</v>
+        <v>1.155708789825439</v>
       </c>
     </row>
   </sheetData>
